--- a/excel/Character.xlsx
+++ b/excel/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Athoic\通用测试\PythonTest\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Athoic\玩的项目\Config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605BDCA-A5C9-46BE-94C8-3C0024A3CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D597F9-65A2-4987-8922-6C4D8AD4A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19488" yWindow="2568" windowWidth="17616" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28380" yWindow="1428" windowWidth="17616" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,71 +415,71 @@
     <col min="8" max="8" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
